--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf22-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf22-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Fgf22</t>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,40 +543,40 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I2">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J2">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.8651055000000001</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N2">
-        <v>1.730211</v>
+        <v>0.184154</v>
       </c>
       <c r="O2">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P2">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q2">
-        <v>0.0271922844445</v>
+        <v>0.002894194956333333</v>
       </c>
       <c r="R2">
-        <v>0.163153706667</v>
+        <v>0.017365169738</v>
       </c>
       <c r="S2">
-        <v>0.1228183411038487</v>
+        <v>0.02406508923635431</v>
       </c>
       <c r="T2">
-        <v>0.09695714176183987</v>
+        <v>0.01689284860367249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +605,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I3">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J3">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +623,10 @@
         <v>2.969268</v>
       </c>
       <c r="O3">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P3">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q3">
         <v>0.03111034051066666</v>
@@ -638,10 +635,10 @@
         <v>0.279993064596</v>
       </c>
       <c r="S3">
-        <v>0.1405148736397825</v>
+        <v>0.2586809568319677</v>
       </c>
       <c r="T3">
-        <v>0.1663911155372927</v>
+        <v>0.272377438381623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +667,10 @@
         <v>0.09429700000000001</v>
       </c>
       <c r="I4">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="J4">
-        <v>0.2932886699262245</v>
+        <v>0.3046368955123587</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09870899999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N4">
-        <v>0.197418</v>
+        <v>0.167516</v>
       </c>
       <c r="O4">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P4">
-        <v>0.0377200445797283</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q4">
-        <v>0.003102654190999999</v>
+        <v>0.002632709375333333</v>
       </c>
       <c r="R4">
-        <v>0.018615925146</v>
+        <v>0.015796256252</v>
       </c>
       <c r="S4">
-        <v>0.01401363837360853</v>
+        <v>0.02189084944403667</v>
       </c>
       <c r="T4">
-        <v>0.01106286170434641</v>
+        <v>0.01536660852706323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -717,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03143233333333333</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H5">
-        <v>0.09429700000000001</v>
+        <v>0.215242</v>
       </c>
       <c r="I5">
-        <v>0.2932886699262245</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J5">
-        <v>0.2932886699262245</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1122906666666667</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N5">
-        <v>0.336872</v>
+        <v>0.184154</v>
       </c>
       <c r="O5">
-        <v>0.0543553789957005</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P5">
-        <v>0.06436508756882468</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q5">
-        <v>0.003529557664888889</v>
+        <v>0.006606279211333333</v>
       </c>
       <c r="R5">
-        <v>0.031766018984</v>
+        <v>0.039637675268</v>
       </c>
       <c r="S5">
-        <v>0.01594181680898484</v>
+        <v>0.05493088791171908</v>
       </c>
       <c r="T5">
-        <v>0.01887755092274556</v>
+        <v>0.03855955671072965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H6">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I6">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J6">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8651055000000001</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N6">
-        <v>1.730211</v>
+        <v>2.969268</v>
       </c>
       <c r="O6">
-        <v>0.418762651604452</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P6">
-        <v>0.3305860461170526</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q6">
-        <v>0.0655228022015</v>
+        <v>0.07101235365066666</v>
       </c>
       <c r="R6">
-        <v>0.3931368132090001</v>
+        <v>0.6391111828559999</v>
       </c>
       <c r="S6">
-        <v>0.2959443105006034</v>
+        <v>0.5904642407544927</v>
       </c>
       <c r="T6">
-        <v>0.2336289043552127</v>
+        <v>0.6217277812882414</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,170 +847,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.07573966666666666</v>
+        <v>0.07174733333333333</v>
       </c>
       <c r="H7">
-        <v>0.227219</v>
+        <v>0.215242</v>
       </c>
       <c r="I7">
-        <v>0.7067113300737755</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="J7">
-        <v>0.7067113300737754</v>
+        <v>0.6953631044876413</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9897559999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N7">
-        <v>2.969268</v>
+        <v>0.167516</v>
       </c>
       <c r="O7">
-        <v>0.4791009269984018</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P7">
-        <v>0.5673288217343945</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q7">
-        <v>0.07496378952133331</v>
+        <v>0.006009413145333333</v>
       </c>
       <c r="R7">
-        <v>0.6746741056919999</v>
+        <v>0.036056478872</v>
       </c>
       <c r="S7">
-        <v>0.3385860533586194</v>
+        <v>0.04996797582142953</v>
       </c>
       <c r="T7">
-        <v>0.4009377061971017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.07573966666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.227219</v>
-      </c>
-      <c r="I8">
-        <v>0.7067113300737755</v>
-      </c>
-      <c r="J8">
-        <v>0.7067113300737754</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.09870899999999999</v>
-      </c>
-      <c r="N8">
-        <v>0.197418</v>
-      </c>
-      <c r="O8">
-        <v>0.04778104240144566</v>
-      </c>
-      <c r="P8">
-        <v>0.0377200445797283</v>
-      </c>
-      <c r="Q8">
-        <v>0.007476186756999999</v>
-      </c>
-      <c r="R8">
-        <v>0.04485712054199999</v>
-      </c>
-      <c r="S8">
-        <v>0.03376740402783712</v>
-      </c>
-      <c r="T8">
-        <v>0.02665718287538189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.07573966666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.227219</v>
-      </c>
-      <c r="I9">
-        <v>0.7067113300737755</v>
-      </c>
-      <c r="J9">
-        <v>0.7067113300737754</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.336872</v>
-      </c>
-      <c r="O9">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P9">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q9">
-        <v>0.008504857663111111</v>
-      </c>
-      <c r="R9">
-        <v>0.076543718968</v>
-      </c>
-      <c r="S9">
-        <v>0.03841356218671566</v>
-      </c>
-      <c r="T9">
-        <v>0.04548753664607912</v>
+        <v>0.03507576648867029</v>
       </c>
     </row>
   </sheetData>
